--- a/Template/NhatKyGiaoDich.xlsx
+++ b/Template/NhatKyGiaoDich.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trung.nguyenhoang/Documents/github/ssh/stocks/Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB833B5-72C4-9046-A639-4A7B93848905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D21474-EBFA-F14B-909C-0BE67EAAEF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lịch sử giao dịch" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Ngày mua</t>
   </si>
@@ -144,10 +144,6 @@
     <t>Lãi vay Margin</t>
   </si>
   <si>
-    <t>Cổ tức 
-(95% sau Thuế TNCN)</t>
-  </si>
-  <si>
     <t>Mã Cổ Phiếu</t>
   </si>
   <si>
@@ -234,6 +230,16 @@
   </si>
   <si>
     <t>Giá Vốn</t>
+  </si>
+  <si>
+    <t>Cổ tức tiền mặt
+(-5%)</t>
+  </si>
+  <si>
+    <t>Tổng Giá Trị</t>
+  </si>
+  <si>
+    <t>Tỉ Trọng</t>
   </si>
 </sst>
 </file>
@@ -499,7 +505,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -717,29 +723,56 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1064,13 +1097,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="9" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="9" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -1082,21 +1115,20 @@
     <col min="5" max="5" width="12" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="21" customWidth="1"/>
     <col min="9" max="9" width="18.83203125" style="21" customWidth="1"/>
     <col min="10" max="10" width="13.83203125" style="21" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="21" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" style="21" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="21" customWidth="1"/>
-    <col min="15" max="15" width="20.5" style="21" customWidth="1"/>
+    <col min="14" max="15" width="20.5" style="21" customWidth="1"/>
     <col min="16" max="16" width="16.33203125" style="10" customWidth="1"/>
     <col min="17" max="17" width="8.83203125" style="10"/>
-    <col min="18" max="18" width="12.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="10"/>
+    <col min="18" max="19" width="18.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
         <v>19</v>
       </c>
@@ -1105,7 +1137,7 @@
       <c r="D1" s="45"/>
       <c r="F1" s="47"/>
       <c r="G1" s="59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
@@ -1116,7 +1148,7 @@
       <c r="N1" s="49"/>
       <c r="O1" s="49"/>
     </row>
-    <row r="2" spans="1:18" s="46" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="46" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -1132,33 +1164,34 @@
       <c r="N2" s="49"/>
       <c r="O2" s="49"/>
     </row>
-    <row r="3" spans="1:18" s="46" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="46" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
       <c r="D3" s="45"/>
       <c r="G3" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="I3" s="58" t="s">
         <v>28</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>29</v>
       </c>
       <c r="J3" s="49"/>
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
       <c r="M3" s="50"/>
-      <c r="O3" s="58" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="46" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N3" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="73"/>
+    </row>
+    <row r="4" spans="1:19" s="46" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="52"/>
       <c r="F4" s="53"/>
@@ -1175,12 +1208,12 @@
       <c r="K4" s="49"/>
       <c r="L4" s="49"/>
       <c r="M4" s="50"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="68">
+      <c r="N4" s="68">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="46" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="74"/>
+    </row>
+    <row r="5" spans="1:19" s="46" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="51"/>
       <c r="D5" s="52"/>
       <c r="F5" s="53"/>
@@ -1194,7 +1227,7 @@
       <c r="N5" s="49"/>
       <c r="O5" s="49"/>
     </row>
-    <row r="6" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="60"/>
       <c r="B6" s="61"/>
       <c r="C6" s="62"/>
@@ -1210,7 +1243,7 @@
       <c r="N6" s="49"/>
       <c r="O6" s="49"/>
     </row>
-    <row r="7" spans="1:18" s="46" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="46" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="54"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -1226,9 +1259,9 @@
       <c r="N7" s="49"/>
       <c r="O7" s="49"/>
     </row>
-    <row r="8" spans="1:18" s="9" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="9" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>0</v>
@@ -1240,7 +1273,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="33" t="s">
         <v>2</v>
@@ -1249,10 +1282,10 @@
         <v>3</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" s="34" t="s">
         <v>4</v>
@@ -1267,19 +1300,25 @@
         <v>5</v>
       </c>
       <c r="N8" s="34" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O8" s="34" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="P8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="Q8" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="36"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -1297,10 +1336,12 @@
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
-    </row>
-    <row r="10" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
-        <v>35</v>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+    </row>
+    <row r="10" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="81" t="s">
+        <v>34</v>
       </c>
       <c r="B10" s="14">
         <v>45265</v>
@@ -1335,130 +1376,145 @@
         <f>IFERROR((G10-F10)/F10,"")</f>
         <v>-1</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13">
-        <f>L10+N10</f>
+      <c r="N10" s="13">
+        <f>L10+ O10</f>
         <v>-29758925</v>
       </c>
+      <c r="O10" s="13"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="71"/>
-    </row>
-    <row r="11" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="73" t="s">
-        <v>36</v>
-      </c>
+      <c r="Q10" s="84">
+        <f>AVERAGE(F10:F11)</f>
+        <v>61000</v>
+      </c>
+      <c r="R10" s="80">
+        <f>SUM(H10:H11)</f>
+        <v>42250000</v>
+      </c>
+      <c r="S10" s="77">
+        <f>R10/H55</f>
+        <v>0.12844873451394695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="82"/>
       <c r="B11" s="14">
-        <v>45307</v>
-      </c>
-      <c r="C11" s="11"/>
+        <v>45393</v>
+      </c>
+      <c r="C11" s="67"/>
       <c r="D11" s="66"/>
       <c r="E11" s="11">
-        <v>500</v>
-      </c>
-      <c r="F11" s="71">
-        <v>44700</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13">
-        <f t="shared" ref="H11:H18" si="0">E11*F11</f>
-        <v>22350000</v>
+        <v>200</v>
+      </c>
+      <c r="F11" s="72">
+        <v>62500</v>
+      </c>
+      <c r="G11" s="69"/>
+      <c r="H11" s="70">
+        <f>E11*F11</f>
+        <v>12500000</v>
       </c>
       <c r="I11" s="13">
-        <f t="shared" ref="I11:I18" si="1">E11*G11</f>
+        <f>E11*G11</f>
         <v>0</v>
       </c>
       <c r="J11" s="13">
-        <f t="shared" ref="J11:J48" si="2">I11*$H$4+I11*$I$4+H11*$G$4</f>
-        <v>6704.9999999999991</v>
+        <f>I11*$H$4+I11*$I$4+H11*$G$4</f>
+        <v>3749.9999999999995</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13">
-        <f t="shared" ref="L11:L48" si="3">(I11-H11-J11-K11)</f>
-        <v>-22356705</v>
+        <f>(I11-H11-J11-K11)</f>
+        <v>-12503750</v>
       </c>
       <c r="M11" s="16">
-        <f t="shared" ref="M11:M48" si="4">IFERROR((G11-F11)/F11,"")</f>
+        <f>IFERROR((G11-F11)/F11,"")</f>
         <v>-1</v>
       </c>
-      <c r="N11" s="13"/>
+      <c r="N11" s="13">
+        <f>L11+O11</f>
+        <v>-11838750</v>
+      </c>
       <c r="O11" s="13">
-        <f t="shared" ref="O11:O48" si="5">L11+N11</f>
-        <v>-22356705</v>
+        <v>665000</v>
       </c>
       <c r="P11" s="11"/>
-      <c r="Q11" s="76">
-        <f>AVERAGE(F11:F15)</f>
-        <v>47140</v>
-      </c>
-      <c r="R11" s="80">
-        <f>Q11*SUM(E11:E15)</f>
-        <v>75424000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="74"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="78"/>
+    </row>
+    <row r="12" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="81" t="s">
+        <v>35</v>
+      </c>
       <c r="B12" s="14">
-        <v>45226</v>
+        <v>45307</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="66"/>
       <c r="E12" s="11">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F12" s="71">
-        <v>45300</v>
+        <v>44700</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="13">
-        <f t="shared" si="0"/>
-        <v>4530000</v>
+        <f t="shared" ref="H12:H20" si="0">E12*F12</f>
+        <v>22350000</v>
       </c>
       <c r="I12" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I12:I20" si="1">E12*G12</f>
         <v>0</v>
       </c>
       <c r="J12" s="13">
-        <f t="shared" si="2"/>
-        <v>1358.9999999999998</v>
+        <f t="shared" ref="J12:J54" si="2">I12*$H$4+I12*$I$4+H12*$G$4</f>
+        <v>6704.9999999999991</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13">
-        <f t="shared" si="3"/>
-        <v>-4531359</v>
+        <f t="shared" ref="L12:L54" si="3">(I12-H12-J12-K12)</f>
+        <v>-22356705</v>
       </c>
       <c r="M12" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M12:M54" si="4">IFERROR((G12-F12)/F12,"")</f>
         <v>-1</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13">
-        <f t="shared" si="5"/>
-        <v>-4531359</v>
-      </c>
+      <c r="N12" s="13">
+        <f t="shared" ref="N12:N54" si="5">L12+O12</f>
+        <v>-22356705</v>
+      </c>
+      <c r="O12" s="13"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="21">
-        <f>SUM(L11:L15)</f>
-        <v>-75582668</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="74"/>
+      <c r="Q12" s="84">
+        <f>AVERAGE(F12:F16)</f>
+        <v>47140</v>
+      </c>
+      <c r="R12" s="80">
+        <f>SUM(H12:H16)</f>
+        <v>75560000</v>
+      </c>
+      <c r="S12" s="77">
+        <f>R12/H55</f>
+        <v>0.22971802082541612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="83"/>
       <c r="B13" s="14">
-        <v>45195</v>
+        <v>45226</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="66"/>
       <c r="E13" s="11">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F13" s="71">
-        <v>49000</v>
+        <v>45300</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="13">
         <f t="shared" si="0"/>
-        <v>14700000</v>
+        <v>4530000</v>
       </c>
       <c r="I13" s="13">
         <f t="shared" si="1"/>
@@ -1466,44 +1522,44 @@
       </c>
       <c r="J13" s="13">
         <f t="shared" si="2"/>
-        <v>4410</v>
+        <v>1358.9999999999998</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13">
         <f t="shared" si="3"/>
-        <v>-14704410</v>
+        <v>-4531359</v>
       </c>
       <c r="M13" s="16">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="N13" s="13">
-        <v>380000</v>
-      </c>
-      <c r="O13" s="13">
         <f t="shared" si="5"/>
-        <v>-14324410</v>
-      </c>
+        <v>-4531359</v>
+      </c>
+      <c r="O13" s="13"/>
       <c r="P13" s="11"/>
-      <c r="Q13" s="77"/>
-    </row>
-    <row r="14" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="74"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="79"/>
+    </row>
+    <row r="14" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="83"/>
       <c r="B14" s="14">
-        <v>45149</v>
+        <v>45195</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="66"/>
       <c r="E14" s="11">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F14" s="71">
-        <v>47900</v>
+        <v>49000</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="13">
         <f t="shared" si="0"/>
-        <v>9580000</v>
+        <v>14700000</v>
       </c>
       <c r="I14" s="13">
         <f t="shared" si="1"/>
@@ -1511,44 +1567,46 @@
       </c>
       <c r="J14" s="13">
         <f t="shared" si="2"/>
-        <v>2873.9999999999995</v>
+        <v>4410</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13">
         <f t="shared" si="3"/>
-        <v>-9582874</v>
+        <v>-14704410</v>
       </c>
       <c r="M14" s="16">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="N14" s="13">
-        <v>665000</v>
+        <f t="shared" si="5"/>
+        <v>-14324410</v>
       </c>
       <c r="O14" s="13">
-        <f t="shared" si="5"/>
-        <v>-8917874</v>
+        <v>380000</v>
       </c>
       <c r="P14" s="11"/>
-      <c r="Q14" s="77"/>
-    </row>
-    <row r="15" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="75"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="79"/>
+    </row>
+    <row r="15" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="83"/>
       <c r="B15" s="14">
         <v>45149</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="66"/>
       <c r="E15" s="11">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F15" s="71">
-        <v>48800</v>
+        <v>47900</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="13">
         <f t="shared" si="0"/>
-        <v>24400000</v>
+        <v>9580000</v>
       </c>
       <c r="I15" s="13">
         <f t="shared" si="1"/>
@@ -1556,46 +1614,46 @@
       </c>
       <c r="J15" s="13">
         <f t="shared" si="2"/>
-        <v>7319.9999999999991</v>
+        <v>2873.9999999999995</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13">
         <f t="shared" si="3"/>
-        <v>-24407320</v>
+        <v>-9582874</v>
       </c>
       <c r="M15" s="16">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="N15" s="13">
-        <v>3200000</v>
+        <f t="shared" si="5"/>
+        <v>-8917874</v>
       </c>
       <c r="O15" s="13">
-        <f t="shared" si="5"/>
-        <v>-21207320</v>
+        <v>665000</v>
       </c>
       <c r="P15" s="11"/>
-      <c r="Q15" s="79"/>
-    </row>
-    <row r="16" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="73" t="s">
-        <v>37</v>
-      </c>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="79"/>
+    </row>
+    <row r="16" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="82"/>
       <c r="B16" s="14">
-        <v>45337</v>
-      </c>
-      <c r="C16" s="14"/>
+        <v>45149</v>
+      </c>
+      <c r="C16" s="11"/>
       <c r="D16" s="66"/>
       <c r="E16" s="11">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F16" s="71">
-        <v>15650</v>
+        <v>48800</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="13">
         <f t="shared" si="0"/>
-        <v>15650000</v>
+        <v>24400000</v>
       </c>
       <c r="I16" s="13">
         <f t="shared" si="1"/>
@@ -1603,34 +1661,33 @@
       </c>
       <c r="J16" s="13">
         <f t="shared" si="2"/>
-        <v>4695</v>
+        <v>7319.9999999999991</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13">
         <f t="shared" si="3"/>
-        <v>-15654695</v>
+        <v>-24407320</v>
       </c>
       <c r="M16" s="16">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="N16" s="13"/>
+      <c r="N16" s="13">
+        <f t="shared" si="5"/>
+        <v>-21367320</v>
+      </c>
       <c r="O16" s="13">
-        <f t="shared" si="5"/>
-        <v>-15654695</v>
+        <v>3040000</v>
       </c>
       <c r="P16" s="11"/>
-      <c r="Q16" s="76">
-        <f>AVERAGE(F16:F17)</f>
-        <v>15725</v>
-      </c>
-      <c r="R16" s="80">
-        <f>Q16*SUM(E16:E18)</f>
-        <v>47175000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="74"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="78"/>
+    </row>
+    <row r="17" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="81" t="s">
+        <v>36</v>
+      </c>
       <c r="B17" s="14">
         <v>45337</v>
       </c>
@@ -1640,12 +1697,12 @@
         <v>1000</v>
       </c>
       <c r="F17" s="71">
-        <v>15800</v>
+        <v>15650</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="13">
         <f t="shared" si="0"/>
-        <v>15800000</v>
+        <v>15650000</v>
       </c>
       <c r="I17" s="13">
         <f t="shared" si="1"/>
@@ -1653,29 +1710,40 @@
       </c>
       <c r="J17" s="13">
         <f t="shared" si="2"/>
-        <v>4740</v>
+        <v>4695</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13">
         <f t="shared" si="3"/>
-        <v>-15804740</v>
+        <v>-15654695</v>
       </c>
       <c r="M17" s="16">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13">
+      <c r="N17" s="13">
         <f t="shared" si="5"/>
-        <v>-15804740</v>
-      </c>
+        <v>-15654695</v>
+      </c>
+      <c r="O17" s="13"/>
       <c r="P17" s="11"/>
-      <c r="Q17" s="77"/>
-    </row>
-    <row r="18" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="75"/>
+      <c r="Q17" s="84">
+        <f>AVERAGE(F17:F20)</f>
+        <v>15312.5</v>
+      </c>
+      <c r="R17" s="76">
+        <f>SUM(H17:H20)</f>
+        <v>61250000</v>
+      </c>
+      <c r="S17" s="77">
+        <f>R17/H55</f>
+        <v>0.18621266246104734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="83"/>
       <c r="B18" s="14">
-        <v>45385</v>
+        <v>45337</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="66"/>
@@ -1683,12 +1751,12 @@
         <v>1000</v>
       </c>
       <c r="F18" s="71">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="13">
         <f t="shared" si="0"/>
-        <v>16000000</v>
+        <v>15800000</v>
       </c>
       <c r="I18" s="13">
         <f t="shared" si="1"/>
@@ -1696,31 +1764,31 @@
       </c>
       <c r="J18" s="13">
         <f t="shared" si="2"/>
-        <v>4800</v>
+        <v>4740</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13">
         <f t="shared" si="3"/>
-        <v>-16004800</v>
+        <v>-15804740</v>
       </c>
       <c r="M18" s="16">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13">
+      <c r="N18" s="13">
         <f t="shared" si="5"/>
-        <v>-16004800</v>
-      </c>
+        <v>-15804740</v>
+      </c>
+      <c r="O18" s="13"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="79"/>
-    </row>
-    <row r="19" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="42" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="79"/>
+    </row>
+    <row r="19" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="83"/>
       <c r="B19" s="14">
-        <v>45350</v>
+        <v>45385</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="66"/>
@@ -1728,44 +1796,44 @@
         <v>1000</v>
       </c>
       <c r="F19" s="71">
-        <v>25300</v>
+        <v>16000</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="13">
-        <f>E19*F19</f>
-        <v>25300000</v>
+        <f t="shared" si="0"/>
+        <v>16000000</v>
       </c>
       <c r="I19" s="13">
-        <f t="shared" ref="I19:I48" si="6">E19*G19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" s="13">
         <f t="shared" si="2"/>
-        <v>7589.9999999999991</v>
+        <v>4800</v>
       </c>
       <c r="K19" s="13"/>
       <c r="L19" s="13">
         <f t="shared" si="3"/>
-        <v>-25307590</v>
+        <v>-16004800</v>
       </c>
       <c r="M19" s="16">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13">
+      <c r="N19" s="13">
         <f t="shared" si="5"/>
-        <v>-25307590</v>
-      </c>
+        <v>-16004800</v>
+      </c>
+      <c r="O19" s="13"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="71"/>
-    </row>
-    <row r="20" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="42" t="s">
-        <v>39</v>
-      </c>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="79"/>
+    </row>
+    <row r="20" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="82"/>
       <c r="B20" s="14">
-        <v>45372</v>
+        <v>45398</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="66"/>
@@ -1773,434 +1841,528 @@
         <v>1000</v>
       </c>
       <c r="F20" s="71">
-        <v>24200</v>
+        <v>13800</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="13">
-        <f>E20*F20</f>
-        <v>24200000</v>
+        <f t="shared" si="0"/>
+        <v>13800000</v>
       </c>
       <c r="I20" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20" s="13">
         <f t="shared" si="2"/>
-        <v>7259.9999999999991</v>
+        <v>4140</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13">
         <f t="shared" si="3"/>
-        <v>-24207260</v>
+        <v>-13804140</v>
       </c>
       <c r="M20" s="16">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13">
+      <c r="N20" s="13">
         <f t="shared" si="5"/>
-        <v>-24207260</v>
-      </c>
+        <v>-13804140</v>
+      </c>
+      <c r="O20" s="13"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="71"/>
-    </row>
-    <row r="21" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="73" t="s">
-        <v>40</v>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="78"/>
+    </row>
+    <row r="21" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="81" t="s">
+        <v>37</v>
       </c>
       <c r="B21" s="14">
-        <v>45223</v>
+        <v>45350</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="66"/>
       <c r="E21" s="11">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F21" s="71">
-        <v>28000</v>
+        <v>25300</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="13">
-        <f t="shared" ref="H21:H48" si="7">E21*F21</f>
-        <v>5600000</v>
+        <f t="shared" ref="H21:H26" si="6">E21*F21</f>
+        <v>25300000</v>
       </c>
       <c r="I21" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="I21:I54" si="7">E21*G21</f>
         <v>0</v>
       </c>
       <c r="J21" s="13">
         <f t="shared" si="2"/>
-        <v>1679.9999999999998</v>
+        <v>7589.9999999999991</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13">
         <f t="shared" si="3"/>
-        <v>-5601680</v>
+        <v>-25307590</v>
       </c>
       <c r="M21" s="16">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13">
+      <c r="N21" s="13">
         <f t="shared" si="5"/>
-        <v>-5601680</v>
-      </c>
+        <v>-25307590</v>
+      </c>
+      <c r="O21" s="13"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="78">
-        <f>AVERAGE(F21:F22)</f>
-        <v>28650</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="74"/>
+      <c r="Q21" s="84">
+        <f>AVERAGE(F21:F23)</f>
+        <v>25716.666666666668</v>
+      </c>
+      <c r="R21" s="76">
+        <f>SUM(H21:H23)</f>
+        <v>43505000</v>
+      </c>
+      <c r="S21" s="77">
+        <f>R21/H55</f>
+        <v>0.13226419396518962</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="83"/>
       <c r="B22" s="14">
-        <v>45110</v>
+        <v>45397</v>
       </c>
       <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="11">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F22" s="71">
-        <v>29300</v>
+        <v>26500</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="13">
+        <f t="shared" si="6"/>
+        <v>10600000</v>
+      </c>
+      <c r="I22" s="13">
         <f t="shared" si="7"/>
-        <v>5860000</v>
-      </c>
-      <c r="I22" s="13">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J22" s="13">
         <f t="shared" si="2"/>
-        <v>1757.9999999999998</v>
+        <v>3179.9999999999995</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13">
         <f t="shared" si="3"/>
-        <v>-5861758</v>
+        <v>-10603180</v>
       </c>
       <c r="M22" s="16">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13">
+      <c r="N22" s="13">
         <f t="shared" si="5"/>
-        <v>-5861758</v>
-      </c>
+        <v>-10603180</v>
+      </c>
+      <c r="O22" s="13"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="78"/>
-    </row>
-    <row r="23" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="75"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="79"/>
+    </row>
+    <row r="23" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="82"/>
       <c r="B23" s="14">
-        <v>45089</v>
+        <v>45398</v>
       </c>
       <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="11">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F23" s="71">
-        <v>28300</v>
+        <v>25350</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="13">
+        <f t="shared" si="6"/>
+        <v>7605000</v>
+      </c>
+      <c r="I23" s="13">
         <f t="shared" si="7"/>
-        <v>14150000</v>
-      </c>
-      <c r="I23" s="13">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J23" s="13">
         <f t="shared" si="2"/>
-        <v>4245</v>
+        <v>2281.5</v>
       </c>
       <c r="K23" s="13"/>
       <c r="L23" s="13">
         <f t="shared" si="3"/>
-        <v>-14154245</v>
+        <v>-7607281.5</v>
       </c>
       <c r="M23" s="16">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13">
+      <c r="N23" s="13">
+        <f t="shared" si="5"/>
+        <v>-7607281.5</v>
+      </c>
+      <c r="O23" s="13"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="78"/>
+    </row>
+    <row r="24" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="14">
+        <v>45372</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="71">
+        <v>24200</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13">
+        <f t="shared" si="6"/>
+        <v>24200000</v>
+      </c>
+      <c r="I24" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="13">
+        <f t="shared" si="2"/>
+        <v>7259.9999999999991</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13">
+        <f t="shared" si="3"/>
+        <v>-24207260</v>
+      </c>
+      <c r="M24" s="16">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="N24" s="13">
+        <f t="shared" si="5"/>
+        <v>-24207260</v>
+      </c>
+      <c r="O24" s="13"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="84">
+        <f>AVERAGE(F24:F26)</f>
+        <v>22116.666666666668</v>
+      </c>
+      <c r="R24" s="76">
+        <f>SUM(H24:H26)</f>
+        <v>66350000</v>
+      </c>
+      <c r="S24" s="77">
+        <f>R24/H55</f>
+        <v>0.20171771680474274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="83"/>
+      <c r="B25" s="14">
+        <v>45392</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F25" s="71">
+        <v>22150</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13">
+        <f t="shared" si="6"/>
+        <v>22150000</v>
+      </c>
+      <c r="I25" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
+        <f t="shared" si="2"/>
+        <v>6644.9999999999991</v>
+      </c>
+      <c r="K25" s="13">
+        <v>116437</v>
+      </c>
+      <c r="L25" s="13">
+        <f t="shared" si="3"/>
+        <v>-22273082</v>
+      </c>
+      <c r="M25" s="16">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="N25" s="13">
+        <f t="shared" si="5"/>
+        <v>-22273082</v>
+      </c>
+      <c r="O25" s="13"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="79"/>
+    </row>
+    <row r="26" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="82"/>
+      <c r="B26" s="14">
+        <v>45398</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="71">
+        <v>20000</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13">
+        <f t="shared" si="6"/>
+        <v>20000000</v>
+      </c>
+      <c r="I26" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="13">
+        <f t="shared" si="2"/>
+        <v>5999.9999999999991</v>
+      </c>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13">
+        <f t="shared" si="3"/>
+        <v>-20006000</v>
+      </c>
+      <c r="M26" s="16">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="N26" s="13">
+        <f t="shared" si="5"/>
+        <v>-20006000</v>
+      </c>
+      <c r="O26" s="13"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="78"/>
+    </row>
+    <row r="27" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="14">
+        <v>45223</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="11">
+        <v>200</v>
+      </c>
+      <c r="F27" s="71">
+        <v>28000</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13">
+        <f t="shared" ref="H27:H54" si="8">E27*F27</f>
+        <v>5600000</v>
+      </c>
+      <c r="I27" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="13">
+        <f t="shared" si="2"/>
+        <v>1679.9999999999998</v>
+      </c>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13">
+        <f t="shared" si="3"/>
+        <v>-5601680</v>
+      </c>
+      <c r="M27" s="16">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="N27" s="13">
+        <f t="shared" si="5"/>
+        <v>-5601680</v>
+      </c>
+      <c r="O27" s="13"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="87">
+        <f>AVERAGE(F27:F30)</f>
+        <v>28600</v>
+      </c>
+      <c r="R27" s="76">
+        <f>SUM(H27:H30)</f>
+        <v>40010000</v>
+      </c>
+      <c r="S27" s="77">
+        <f>R27/H55</f>
+        <v>0.12163867142965722</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="83"/>
+      <c r="B28" s="14">
+        <v>45110</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="11">
+        <v>200</v>
+      </c>
+      <c r="F28" s="71">
+        <v>29300</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="13">
+        <f t="shared" si="8"/>
+        <v>5860000</v>
+      </c>
+      <c r="I28" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="13">
+        <f t="shared" si="2"/>
+        <v>1757.9999999999998</v>
+      </c>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13">
+        <f t="shared" si="3"/>
+        <v>-5861758</v>
+      </c>
+      <c r="M28" s="16">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="N28" s="13">
+        <f t="shared" si="5"/>
+        <v>-5861758</v>
+      </c>
+      <c r="O28" s="13"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="79"/>
+    </row>
+    <row r="29" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="83"/>
+      <c r="B29" s="14">
+        <v>45089</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="11">
+        <v>500</v>
+      </c>
+      <c r="F29" s="71">
+        <v>28300</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13">
+        <f t="shared" si="8"/>
+        <v>14150000</v>
+      </c>
+      <c r="I29" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
+        <f t="shared" si="2"/>
+        <v>4245</v>
+      </c>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13">
+        <f t="shared" si="3"/>
+        <v>-14154245</v>
+      </c>
+      <c r="M29" s="16">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="N29" s="13">
         <f t="shared" si="5"/>
         <v>-14154245</v>
       </c>
-      <c r="P23" s="11">
+      <c r="O29" s="13"/>
+      <c r="P29" s="11">
         <v>100</v>
       </c>
-      <c r="Q23" s="78"/>
-    </row>
-    <row r="24" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-    </row>
-    <row r="25" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="42"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-    </row>
-    <row r="26" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-    </row>
-    <row r="27" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-    </row>
-    <row r="28" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-    </row>
-    <row r="29" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-    </row>
-    <row r="30" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
-      <c r="B30" s="14"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="76"/>
+      <c r="S29" s="79"/>
+    </row>
+    <row r="30" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="82"/>
+      <c r="B30" s="14">
+        <v>45398</v>
+      </c>
       <c r="C30" s="14"/>
       <c r="D30" s="15"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="71"/>
+      <c r="E30" s="11">
+        <v>500</v>
+      </c>
+      <c r="F30" s="71">
+        <v>28800</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="13">
+        <f t="shared" si="8"/>
+        <v>14400000</v>
+      </c>
+      <c r="I30" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I30" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="J30" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4320</v>
       </c>
       <c r="K30" s="13"/>
       <c r="L30" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="16" t="str">
+        <v>-14404320</v>
+      </c>
+      <c r="M30" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13">
+        <v>-1</v>
+      </c>
+      <c r="N30" s="13">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>-14404320</v>
+      </c>
+      <c r="O30" s="13"/>
       <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-    </row>
-    <row r="31" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q30" s="89"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="78"/>
+    </row>
+    <row r="31" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="42"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -2209,11 +2371,11 @@
       <c r="F31" s="71"/>
       <c r="G31" s="12"/>
       <c r="H31" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="13">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J31" s="13">
@@ -2229,15 +2391,17 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13">
+      <c r="N31" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="O31" s="13"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
-    </row>
-    <row r="32" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+    </row>
+    <row r="32" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="42"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -2246,11 +2410,11 @@
       <c r="F32" s="71"/>
       <c r="G32" s="12"/>
       <c r="H32" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="13">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J32" s="13">
@@ -2266,15 +2430,17 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13">
+      <c r="N32" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="O32" s="13"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
-    </row>
-    <row r="33" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+    </row>
+    <row r="33" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="42"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -2283,11 +2449,11 @@
       <c r="F33" s="71"/>
       <c r="G33" s="12"/>
       <c r="H33" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="13">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J33" s="13">
@@ -2303,15 +2469,17 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13">
+      <c r="N33" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="O33" s="13"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
-    </row>
-    <row r="34" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+    </row>
+    <row r="34" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="42"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -2320,11 +2488,11 @@
       <c r="F34" s="71"/>
       <c r="G34" s="12"/>
       <c r="H34" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="13">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J34" s="13">
@@ -2340,15 +2508,17 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13">
+      <c r="N34" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="O34" s="13"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
-    </row>
-    <row r="35" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+    </row>
+    <row r="35" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="42"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -2357,11 +2527,11 @@
       <c r="F35" s="71"/>
       <c r="G35" s="12"/>
       <c r="H35" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="13">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J35" s="13">
@@ -2377,15 +2547,17 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13">
+      <c r="N35" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="O35" s="13"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
-    </row>
-    <row r="36" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+    </row>
+    <row r="36" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="42"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -2394,11 +2566,11 @@
       <c r="F36" s="71"/>
       <c r="G36" s="12"/>
       <c r="H36" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="13">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J36" s="13">
@@ -2414,15 +2586,17 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13">
+      <c r="N36" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="O36" s="13"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+    </row>
+    <row r="37" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="42"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -2431,11 +2605,11 @@
       <c r="F37" s="71"/>
       <c r="G37" s="12"/>
       <c r="H37" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="13">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J37" s="13">
@@ -2451,15 +2625,17 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13">
+      <c r="N37" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="O37" s="13"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+    </row>
+    <row r="38" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="42"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -2468,11 +2644,11 @@
       <c r="F38" s="71"/>
       <c r="G38" s="12"/>
       <c r="H38" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="13">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J38" s="13">
@@ -2488,15 +2664,17 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13">
+      <c r="N38" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="O38" s="13"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+    </row>
+    <row r="39" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="42"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -2505,11 +2683,11 @@
       <c r="F39" s="71"/>
       <c r="G39" s="12"/>
       <c r="H39" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="13">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J39" s="13">
@@ -2525,15 +2703,17 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13">
+      <c r="N39" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="O39" s="13"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+    </row>
+    <row r="40" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="42"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -2542,11 +2722,11 @@
       <c r="F40" s="71"/>
       <c r="G40" s="12"/>
       <c r="H40" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="13">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J40" s="13">
@@ -2562,15 +2742,17 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13">
+      <c r="N40" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="O40" s="13"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+    </row>
+    <row r="41" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="42"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -2579,11 +2761,11 @@
       <c r="F41" s="71"/>
       <c r="G41" s="12"/>
       <c r="H41" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="13">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J41" s="13">
@@ -2599,15 +2781,17 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13">
+      <c r="N41" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="O41" s="13"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+    </row>
+    <row r="42" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="42"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2616,11 +2800,11 @@
       <c r="F42" s="71"/>
       <c r="G42" s="12"/>
       <c r="H42" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="13">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J42" s="13">
@@ -2636,15 +2820,17 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13">
+      <c r="N42" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="O42" s="13"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="42"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -2653,11 +2839,11 @@
       <c r="F43" s="71"/>
       <c r="G43" s="12"/>
       <c r="H43" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="13">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J43" s="13">
@@ -2673,15 +2859,17 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13">
+      <c r="N43" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="O43" s="13"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="42"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -2690,11 +2878,11 @@
       <c r="F44" s="71"/>
       <c r="G44" s="12"/>
       <c r="H44" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="13">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J44" s="13">
@@ -2710,15 +2898,17 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13">
+      <c r="N44" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="O44" s="13"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="42"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -2727,11 +2917,11 @@
       <c r="F45" s="71"/>
       <c r="G45" s="12"/>
       <c r="H45" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="13">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J45" s="13">
@@ -2747,15 +2937,17 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13">
+      <c r="N45" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="O45" s="13"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="42"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -2764,11 +2956,11 @@
       <c r="F46" s="71"/>
       <c r="G46" s="12"/>
       <c r="H46" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="13">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J46" s="13">
@@ -2784,15 +2976,17 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13">
+      <c r="N46" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="O46" s="13"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="42"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -2801,11 +2995,11 @@
       <c r="F47" s="71"/>
       <c r="G47" s="12"/>
       <c r="H47" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J47" s="13">
@@ -2821,15 +3015,17 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13">
+      <c r="N47" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="O47" s="13"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="42"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -2838,11 +3034,11 @@
       <c r="F48" s="71"/>
       <c r="G48" s="12"/>
       <c r="H48" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="13">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J48" s="13">
@@ -2858,44 +3054,305 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13">
+      <c r="N48" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="O48" s="13"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
-    </row>
-    <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="41">
-        <f>SUM(O10:O48) * O4</f>
-        <v>-223693361000</v>
-      </c>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" s="42"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N49" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="13"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="42"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N50" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="13"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="42"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N51" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="13"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="42"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N52" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="13"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" s="42"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N53" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="13"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="42"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N54" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="13"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+    </row>
+    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="39">
+        <f>SUM(H10:H54)</f>
+        <v>328925000</v>
+      </c>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="41">
+        <f>SUM(N10:N54)</f>
+        <v>-324390114.5</v>
+      </c>
+      <c r="O55" s="75"/>
+      <c r="P55" s="75"/>
+      <c r="Q55" s="75"/>
+      <c r="R55" s="75"/>
+      <c r="S55" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="24">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="Q12:Q16"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="Q27:Q30"/>
     <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A11:A15"/>
     <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="Q16:Q18"/>
-    <mergeCell ref="Q11:Q15"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R27:R30"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="S12:S16"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="S24:S26"/>
+    <mergeCell ref="S27:S30"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R16"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="R24:R26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Template/NhatKyGiaoDich.xlsx
+++ b/Template/NhatKyGiaoDich.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trung.nguyenhoang/Documents/github/ssh/stocks/Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D21474-EBFA-F14B-909C-0BE67EAAEF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570E1287-6D8D-B744-9BF6-449BAD39E443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Ngày mua</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Phí mua bán + thuế</t>
-  </si>
-  <si>
-    <t>% Tăng</t>
   </si>
   <si>
     <t>Lý do bán</t>
@@ -229,17 +226,38 @@
     <t>Cổ tức cổ phiếu</t>
   </si>
   <si>
-    <t>Giá Vốn</t>
-  </si>
-  <si>
     <t>Cổ tức tiền mặt
 (-5%)</t>
   </si>
   <si>
-    <t>Tổng Giá Trị</t>
+    <t>Tiền mặt</t>
   </si>
   <si>
-    <t>Tỉ Trọng</t>
+    <t>cổ tức</t>
+  </si>
+  <si>
+    <t>quyền mua</t>
+  </si>
+  <si>
+    <t>Tin media, DCA cổ rác =&gt; Cắt lỗ</t>
+  </si>
+  <si>
+    <t>Tổng Lời/Lỗ</t>
+  </si>
+  <si>
+    <t>Nợ vay</t>
+  </si>
+  <si>
+    <t>Lãi/Lỗ (+ Phí/Lãi)</t>
+  </si>
+  <si>
+    <t>Tổng Giá Trị Mua + Phí</t>
+  </si>
+  <si>
+    <t>% Tăng/Giảm</t>
+  </si>
+  <si>
+    <t>Lãi/Lỗ (+ Cổ tức)</t>
   </si>
 </sst>
 </file>
@@ -399,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,8 +454,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -497,6 +533,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -505,7 +629,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -627,9 +751,6 @@
     <xf numFmtId="10" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -732,21 +853,6 @@
     <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -756,23 +862,143 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1097,171 +1323,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="9" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="26"/>
-    <col min="2" max="2" width="15.6640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="18" customWidth="1"/>
     <col min="5" max="5" width="12" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="20" customWidth="1"/>
     <col min="8" max="8" width="19.83203125" style="21" customWidth="1"/>
     <col min="9" max="9" width="18.83203125" style="21" customWidth="1"/>
     <col min="10" max="10" width="13.83203125" style="21" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="21" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="21" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" style="21" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="20.5" style="21" customWidth="1"/>
     <col min="16" max="16" width="16.33203125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.83203125" style="10"/>
-    <col min="18" max="19" width="18.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.1640625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="14" style="10" customWidth="1"/>
+    <col min="19" max="19" width="15.5" style="10" customWidth="1"/>
     <col min="20" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="59" t="s">
-        <v>29</v>
+    <row r="1" spans="1:19" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="58" t="s">
+        <v>28</v>
       </c>
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-    </row>
-    <row r="2" spans="1:19" s="46" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="F2" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+    </row>
+    <row r="2" spans="1:19" s="45" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="20"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-    </row>
-    <row r="3" spans="1:19" s="46" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+    </row>
+    <row r="3" spans="1:19" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="G3" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="48"/>
+      <c r="K3" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="72"/>
+    </row>
+    <row r="4" spans="1:19" s="45" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="G3" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="73"/>
-    </row>
-    <row r="4" spans="1:19" s="46" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="65">
+      <c r="D4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="64">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="64">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I4" s="56">
+      <c r="I4" s="55">
         <v>1E-3</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="68">
+      <c r="J4" s="48"/>
+      <c r="K4" s="79">
+        <v>24952904</v>
+      </c>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="67">
         <v>1000</v>
       </c>
-      <c r="O4" s="74"/>
-    </row>
-    <row r="5" spans="1:19" s="46" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-    </row>
-    <row r="6" spans="1:19" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-    </row>
-    <row r="7" spans="1:19" s="46" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
+      <c r="O4" s="73"/>
+    </row>
+    <row r="5" spans="1:19" s="45" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="50"/>
+      <c r="D5" s="51"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+    </row>
+    <row r="6" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:19" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="53"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
     </row>
     <row r="8" spans="1:19" s="9" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>0</v>
@@ -1270,10 +1498,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="33" t="s">
         <v>2</v>
@@ -1282,40 +1510,40 @@
         <v>3</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="34" t="s">
         <v>4</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="N8" s="34" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="O8" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S8" s="34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1340,22 +1568,22 @@
       <c r="S9" s="39"/>
     </row>
     <row r="10" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="81" t="s">
-        <v>34</v>
+      <c r="A10" s="75" t="s">
+        <v>33</v>
       </c>
       <c r="B10" s="14">
         <v>45265</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="11">
         <v>500</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F10" s="71">
         <v>59500</v>
       </c>
-      <c r="G10" s="69"/>
-      <c r="H10" s="70">
+      <c r="G10" s="68"/>
+      <c r="H10" s="69">
         <f>E10*F10</f>
         <v>29750000</v>
       </c>
@@ -1368,7 +1596,7 @@
         <v>8925</v>
       </c>
       <c r="K10" s="13"/>
-      <c r="L10" s="13">
+      <c r="L10" s="78">
         <f>(I10-H10-J10-K10)</f>
         <v>-29758925</v>
       </c>
@@ -1376,40 +1604,34 @@
         <f>IFERROR((G10-F10)/F10,"")</f>
         <v>-1</v>
       </c>
-      <c r="N10" s="13">
-        <f>L10+ O10</f>
+      <c r="N10" s="78">
+        <f>L10+O10</f>
         <v>-29758925</v>
       </c>
       <c r="O10" s="13"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="84">
-        <f>AVERAGE(F10:F11)</f>
-        <v>61000</v>
-      </c>
-      <c r="R10" s="80">
-        <f>SUM(H10:H11)</f>
-        <v>42250000</v>
-      </c>
-      <c r="S10" s="77">
-        <f>R10/H55</f>
-        <v>0.12844873451394695</v>
-      </c>
+      <c r="Q10" s="111">
+        <f>SUM(H10:H12) + SUM(J10:J12)</f>
+        <v>42262675</v>
+      </c>
+      <c r="R10" s="98"/>
+      <c r="S10" s="94"/>
     </row>
     <row r="11" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="82"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="14">
         <v>45393</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="11">
         <v>200</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="71">
         <v>62500</v>
       </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="70">
+      <c r="G11" s="68"/>
+      <c r="H11" s="69">
         <f>E11*F11</f>
         <v>12500000</v>
       </c>
@@ -1422,7 +1644,7 @@
         <v>3749.9999999999995</v>
       </c>
       <c r="K11" s="13"/>
-      <c r="L11" s="13">
+      <c r="L11" s="78">
         <f>(I11-H11-J11-K11)</f>
         <v>-12503750</v>
       </c>
@@ -1430,1065 +1652,968 @@
         <f>IFERROR((G11-F11)/F11,"")</f>
         <v>-1</v>
       </c>
-      <c r="N11" s="13">
-        <f>L11+O11</f>
+      <c r="N11" s="78">
+        <f t="shared" ref="N11:N64" si="0">L11+O11</f>
         <v>-11838750</v>
       </c>
       <c r="O11" s="13">
         <v>665000</v>
       </c>
       <c r="P11" s="11"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="80"/>
-      <c r="S11" s="78"/>
-    </row>
-    <row r="12" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="14">
+      <c r="Q11" s="113"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="95"/>
+    </row>
+    <row r="12" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="76"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="11">
+        <v>105</v>
+      </c>
+      <c r="F12" s="71">
+        <v>0</v>
+      </c>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="78">
+        <f>(I12-H12-J12-K12)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="16"/>
+      <c r="N12" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="13"/>
+      <c r="P12" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="96"/>
+    </row>
+    <row r="13" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="108"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="110"/>
+    </row>
+    <row r="14" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="14">
         <v>45307</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="11">
+      <c r="C14" s="11"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="11">
         <v>500</v>
       </c>
-      <c r="F12" s="71">
+      <c r="F14" s="70">
         <v>44700</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13">
-        <f t="shared" ref="H12:H20" si="0">E12*F12</f>
-        <v>22350000</v>
-      </c>
-      <c r="I12" s="13">
-        <f t="shared" ref="I12:I20" si="1">E12*G12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
-        <f t="shared" ref="J12:J54" si="2">I12*$H$4+I12*$I$4+H12*$G$4</f>
-        <v>6704.9999999999991</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13">
-        <f t="shared" ref="L12:L54" si="3">(I12-H12-J12-K12)</f>
-        <v>-22356705</v>
-      </c>
-      <c r="M12" s="16">
-        <f t="shared" ref="M12:M54" si="4">IFERROR((G12-F12)/F12,"")</f>
-        <v>-1</v>
-      </c>
-      <c r="N12" s="13">
-        <f t="shared" ref="N12:N54" si="5">L12+O12</f>
-        <v>-22356705</v>
-      </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="84">
-        <f>AVERAGE(F12:F16)</f>
-        <v>47140</v>
-      </c>
-      <c r="R12" s="80">
-        <f>SUM(H12:H16)</f>
-        <v>75560000</v>
-      </c>
-      <c r="S12" s="77">
-        <f>R12/H55</f>
-        <v>0.22971802082541612</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="83"/>
-      <c r="B13" s="14">
-        <v>45226</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="11">
-        <v>100</v>
-      </c>
-      <c r="F13" s="71">
-        <v>45300</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13">
-        <f t="shared" si="0"/>
-        <v>4530000</v>
-      </c>
-      <c r="I13" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="13">
-        <f t="shared" si="2"/>
-        <v>1358.9999999999998</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13">
-        <f t="shared" si="3"/>
-        <v>-4531359</v>
-      </c>
-      <c r="M13" s="16">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="N13" s="13">
-        <f t="shared" si="5"/>
-        <v>-4531359</v>
-      </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="79"/>
-    </row>
-    <row r="14" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="83"/>
-      <c r="B14" s="14">
-        <v>45195</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="11">
-        <v>300</v>
-      </c>
-      <c r="F14" s="71">
-        <v>49000</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="13">
-        <f t="shared" si="0"/>
-        <v>14700000</v>
+        <f t="shared" ref="H14:H23" si="1">E14*F14</f>
+        <v>22350000</v>
       </c>
       <c r="I14" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I14:I23" si="2">E14*G14</f>
         <v>0</v>
       </c>
       <c r="J14" s="13">
-        <f t="shared" si="2"/>
-        <v>4410</v>
+        <f t="shared" ref="J14:J64" si="3">I14*$H$4+I14*$I$4+H14*$G$4</f>
+        <v>6704.9999999999991</v>
       </c>
       <c r="K14" s="13"/>
-      <c r="L14" s="13">
-        <f t="shared" si="3"/>
-        <v>-14704410</v>
+      <c r="L14" s="78">
+        <f t="shared" ref="L14:L64" si="4">(I14-H14-J14-K14)</f>
+        <v>-22356705</v>
       </c>
       <c r="M14" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M14:M64" si="5">IFERROR((G14-F14)/F14,"")</f>
         <v>-1</v>
       </c>
-      <c r="N14" s="13">
-        <f t="shared" si="5"/>
-        <v>-14324410</v>
-      </c>
-      <c r="O14" s="13">
-        <v>380000</v>
-      </c>
+      <c r="N14" s="78">
+        <f t="shared" si="0"/>
+        <v>-22356705</v>
+      </c>
+      <c r="O14" s="13"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="79"/>
+      <c r="Q14" s="114">
+        <f>SUM(H14:H18) + SUM(J14:J18)</f>
+        <v>75582668</v>
+      </c>
+      <c r="R14" s="98"/>
+      <c r="S14" s="94"/>
     </row>
     <row r="15" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="83"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="14">
-        <v>45149</v>
+        <v>45226</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="66"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="11">
-        <v>200</v>
-      </c>
-      <c r="F15" s="71">
-        <v>47900</v>
+        <v>100</v>
+      </c>
+      <c r="F15" s="70">
+        <v>45300</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="13">
-        <f t="shared" si="0"/>
-        <v>9580000</v>
+        <f t="shared" si="1"/>
+        <v>4530000</v>
       </c>
       <c r="I15" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J15" s="13">
-        <f t="shared" si="2"/>
-        <v>2873.9999999999995</v>
+        <f t="shared" si="3"/>
+        <v>1358.9999999999998</v>
       </c>
       <c r="K15" s="13"/>
-      <c r="L15" s="13">
-        <f t="shared" si="3"/>
-        <v>-9582874</v>
+      <c r="L15" s="78">
+        <f t="shared" si="4"/>
+        <v>-4531359</v>
       </c>
       <c r="M15" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="N15" s="13">
-        <f t="shared" si="5"/>
-        <v>-8917874</v>
-      </c>
-      <c r="O15" s="13">
-        <v>665000</v>
-      </c>
+      <c r="N15" s="78">
+        <f t="shared" si="0"/>
+        <v>-4531359</v>
+      </c>
+      <c r="O15" s="13"/>
       <c r="P15" s="11"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="79"/>
+      <c r="Q15" s="114"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="95"/>
     </row>
     <row r="16" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="82"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="14">
-        <v>45149</v>
+        <v>45195</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="66"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="11">
-        <v>500</v>
-      </c>
-      <c r="F16" s="71">
-        <v>48800</v>
+        <v>300</v>
+      </c>
+      <c r="F16" s="70">
+        <v>49000</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="13">
-        <f t="shared" si="0"/>
-        <v>24400000</v>
+        <f t="shared" si="1"/>
+        <v>14700000</v>
       </c>
       <c r="I16" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J16" s="13">
-        <f t="shared" si="2"/>
-        <v>7319.9999999999991</v>
+        <f t="shared" si="3"/>
+        <v>4410</v>
       </c>
       <c r="K16" s="13"/>
-      <c r="L16" s="13">
-        <f t="shared" si="3"/>
-        <v>-24407320</v>
+      <c r="L16" s="78">
+        <f t="shared" si="4"/>
+        <v>-14704410</v>
       </c>
       <c r="M16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="N16" s="13">
-        <f t="shared" si="5"/>
-        <v>-21367320</v>
+      <c r="N16" s="78">
+        <f t="shared" si="0"/>
+        <v>-14324410</v>
       </c>
       <c r="O16" s="13">
-        <v>3040000</v>
+        <v>380000</v>
       </c>
       <c r="P16" s="11"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="78"/>
+      <c r="Q16" s="114"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="95"/>
     </row>
     <row r="17" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="81" t="s">
-        <v>36</v>
-      </c>
+      <c r="A17" s="77"/>
       <c r="B17" s="14">
-        <v>45337</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="66"/>
+        <v>45149</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="11">
-        <v>1000</v>
-      </c>
-      <c r="F17" s="71">
-        <v>15650</v>
+        <v>200</v>
+      </c>
+      <c r="F17" s="70">
+        <v>47900</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="13">
-        <f t="shared" si="0"/>
-        <v>15650000</v>
+        <f t="shared" si="1"/>
+        <v>9580000</v>
       </c>
       <c r="I17" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J17" s="13">
-        <f t="shared" si="2"/>
-        <v>4695</v>
+        <f t="shared" si="3"/>
+        <v>2873.9999999999995</v>
       </c>
       <c r="K17" s="13"/>
-      <c r="L17" s="13">
-        <f t="shared" si="3"/>
-        <v>-15654695</v>
+      <c r="L17" s="78">
+        <f t="shared" si="4"/>
+        <v>-9582874</v>
       </c>
       <c r="M17" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="N17" s="13">
-        <f t="shared" si="5"/>
-        <v>-15654695</v>
-      </c>
-      <c r="O17" s="13"/>
+      <c r="N17" s="78">
+        <f t="shared" si="0"/>
+        <v>-8917874</v>
+      </c>
+      <c r="O17" s="13">
+        <v>665000</v>
+      </c>
       <c r="P17" s="11"/>
-      <c r="Q17" s="84">
-        <f>AVERAGE(F17:F20)</f>
-        <v>15312.5</v>
-      </c>
-      <c r="R17" s="76">
-        <f>SUM(H17:H20)</f>
-        <v>61250000</v>
-      </c>
-      <c r="S17" s="77">
-        <f>R17/H55</f>
-        <v>0.18621266246104734</v>
-      </c>
+      <c r="Q17" s="114"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="95"/>
     </row>
     <row r="18" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="83"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="14">
-        <v>45337</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="66"/>
+        <v>45149</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="11">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="71">
-        <v>15800</v>
+        <v>500</v>
+      </c>
+      <c r="F18" s="70">
+        <v>48800</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>24400000</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="13">
+        <f t="shared" si="3"/>
+        <v>7319.9999999999991</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="78">
+        <f t="shared" si="4"/>
+        <v>-24407320</v>
+      </c>
+      <c r="M18" s="16">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="N18" s="78">
+        <f t="shared" si="0"/>
+        <v>-21367320</v>
+      </c>
+      <c r="O18" s="13">
+        <v>3040000</v>
+      </c>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="114"/>
+      <c r="R18" s="100"/>
+      <c r="S18" s="96"/>
+    </row>
+    <row r="19" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="105"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="106"/>
+      <c r="S19" s="107"/>
+    </row>
+    <row r="20" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="82">
+        <v>45337</v>
+      </c>
+      <c r="C20" s="82">
+        <v>45819</v>
+      </c>
+      <c r="D20" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="84">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="85">
+        <v>15650</v>
+      </c>
+      <c r="G20" s="85">
+        <v>13300</v>
+      </c>
+      <c r="H20" s="86">
+        <f t="shared" si="1"/>
+        <v>15650000</v>
+      </c>
+      <c r="I20" s="86">
+        <f t="shared" si="2"/>
+        <v>13300000</v>
+      </c>
+      <c r="J20" s="86">
+        <f t="shared" si="3"/>
+        <v>21985</v>
+      </c>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87">
+        <f t="shared" si="4"/>
+        <v>-2371985</v>
+      </c>
+      <c r="M20" s="88">
+        <f t="shared" si="5"/>
+        <v>-0.15015974440894569</v>
+      </c>
+      <c r="N20" s="87">
+        <f t="shared" si="0"/>
+        <v>-2371985</v>
+      </c>
+      <c r="O20" s="86"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="89">
+        <f>SUM(H20:H23) + + SUM(J20:J23)</f>
+        <v>61337535</v>
+      </c>
+      <c r="R20" s="97">
+        <f>SUM(N20:N23)</f>
+        <v>-8658988</v>
+      </c>
+      <c r="S20" s="97">
+        <v>28172043</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="90"/>
+      <c r="B21" s="82">
+        <v>45337</v>
+      </c>
+      <c r="C21" s="82">
+        <v>45819</v>
+      </c>
+      <c r="D21" s="91"/>
+      <c r="E21" s="84">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="85">
+        <v>15800</v>
+      </c>
+      <c r="G21" s="85">
+        <v>13300</v>
+      </c>
+      <c r="H21" s="86">
+        <f t="shared" si="1"/>
         <v>15800000</v>
       </c>
-      <c r="I18" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="13">
+      <c r="I21" s="86">
         <f t="shared" si="2"/>
-        <v>4740</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13">
-        <f t="shared" si="3"/>
-        <v>-15804740</v>
-      </c>
-      <c r="M18" s="16">
+        <v>13300000</v>
+      </c>
+      <c r="J21" s="86">
+        <f t="shared" si="3"/>
+        <v>22030</v>
+      </c>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="N18" s="13">
+        <v>-2522030</v>
+      </c>
+      <c r="M21" s="88">
         <f t="shared" si="5"/>
-        <v>-15804740</v>
-      </c>
-      <c r="O18" s="13"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="79"/>
-    </row>
-    <row r="19" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="83"/>
-      <c r="B19" s="14">
+        <v>-0.15822784810126583</v>
+      </c>
+      <c r="N21" s="87">
+        <f t="shared" si="0"/>
+        <v>-2522030</v>
+      </c>
+      <c r="O21" s="86"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="101"/>
+      <c r="S21" s="101"/>
+    </row>
+    <row r="22" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="90"/>
+      <c r="B22" s="82">
         <v>45385</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="11">
+      <c r="C22" s="82">
+        <v>45819</v>
+      </c>
+      <c r="D22" s="91"/>
+      <c r="E22" s="84">
         <v>1000</v>
       </c>
-      <c r="F19" s="71">
+      <c r="F22" s="85">
         <v>16000</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13">
-        <f t="shared" si="0"/>
+      <c r="G22" s="85">
+        <v>13300</v>
+      </c>
+      <c r="H22" s="86">
+        <f t="shared" si="1"/>
         <v>16000000</v>
       </c>
-      <c r="I19" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="13">
+      <c r="I22" s="86">
         <f t="shared" si="2"/>
-        <v>4800</v>
-      </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13">
-        <f t="shared" si="3"/>
-        <v>-16004800</v>
-      </c>
-      <c r="M19" s="16">
+        <v>13300000</v>
+      </c>
+      <c r="J22" s="86">
+        <f t="shared" si="3"/>
+        <v>22090</v>
+      </c>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="N19" s="13">
+        <v>-2722090</v>
+      </c>
+      <c r="M22" s="88">
         <f t="shared" si="5"/>
-        <v>-16004800</v>
-      </c>
-      <c r="O19" s="13"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="79"/>
-    </row>
-    <row r="20" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="82"/>
-      <c r="B20" s="14">
+        <v>-0.16875000000000001</v>
+      </c>
+      <c r="N22" s="87">
+        <f t="shared" si="0"/>
+        <v>-2722090</v>
+      </c>
+      <c r="O22" s="86"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="101"/>
+      <c r="S22" s="101"/>
+    </row>
+    <row r="23" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="92"/>
+      <c r="B23" s="82">
         <v>45398</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="11">
+      <c r="C23" s="82">
+        <v>45819</v>
+      </c>
+      <c r="D23" s="93"/>
+      <c r="E23" s="84">
         <v>1000</v>
       </c>
-      <c r="F20" s="71">
+      <c r="F23" s="85">
         <v>13800</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13">
-        <f t="shared" si="0"/>
+      <c r="G23" s="85">
+        <v>13300</v>
+      </c>
+      <c r="H23" s="86">
+        <f t="shared" si="1"/>
         <v>13800000</v>
       </c>
-      <c r="I20" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="13">
+      <c r="I23" s="86">
         <f t="shared" si="2"/>
-        <v>4140</v>
-      </c>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13">
-        <f t="shared" si="3"/>
-        <v>-13804140</v>
-      </c>
-      <c r="M20" s="16">
+        <v>13300000</v>
+      </c>
+      <c r="J23" s="86">
+        <f t="shared" si="3"/>
+        <v>21430</v>
+      </c>
+      <c r="K23" s="87">
+        <v>521453</v>
+      </c>
+      <c r="L23" s="87">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="N20" s="13">
+        <v>-1042883</v>
+      </c>
+      <c r="M23" s="88">
         <f t="shared" si="5"/>
-        <v>-13804140</v>
-      </c>
-      <c r="O20" s="13"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="78"/>
-    </row>
-    <row r="21" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="14">
+        <v>-3.6231884057971016E-2</v>
+      </c>
+      <c r="N23" s="87">
+        <f t="shared" si="0"/>
+        <v>-1042883</v>
+      </c>
+      <c r="O23" s="86"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="102"/>
+      <c r="S23" s="102"/>
+    </row>
+    <row r="24" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="105"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="107"/>
+    </row>
+    <row r="25" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="14">
         <v>45350</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="11">
-        <v>1000</v>
-      </c>
-      <c r="F21" s="71">
-        <v>25300</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13">
-        <f t="shared" ref="H21:H26" si="6">E21*F21</f>
-        <v>25300000</v>
-      </c>
-      <c r="I21" s="13">
-        <f t="shared" ref="I21:I54" si="7">E21*G21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="13">
-        <f t="shared" si="2"/>
-        <v>7589.9999999999991</v>
-      </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13">
-        <f t="shared" si="3"/>
-        <v>-25307590</v>
-      </c>
-      <c r="M21" s="16">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="N21" s="13">
-        <f t="shared" si="5"/>
-        <v>-25307590</v>
-      </c>
-      <c r="O21" s="13"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="84">
-        <f>AVERAGE(F21:F23)</f>
-        <v>25716.666666666668</v>
-      </c>
-      <c r="R21" s="76">
-        <f>SUM(H21:H23)</f>
-        <v>43505000</v>
-      </c>
-      <c r="S21" s="77">
-        <f>R21/H55</f>
-        <v>0.13226419396518962</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="83"/>
-      <c r="B22" s="14">
-        <v>45397</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="11">
-        <v>400</v>
-      </c>
-      <c r="F22" s="71">
-        <v>26500</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13">
-        <f t="shared" si="6"/>
-        <v>10600000</v>
-      </c>
-      <c r="I22" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="13">
-        <f t="shared" si="2"/>
-        <v>3179.9999999999995</v>
-      </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13">
-        <f t="shared" si="3"/>
-        <v>-10603180</v>
-      </c>
-      <c r="M22" s="16">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="N22" s="13">
-        <f t="shared" si="5"/>
-        <v>-10603180</v>
-      </c>
-      <c r="O22" s="13"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="79"/>
-    </row>
-    <row r="23" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="82"/>
-      <c r="B23" s="14">
-        <v>45398</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="11">
-        <v>300</v>
-      </c>
-      <c r="F23" s="71">
-        <v>25350</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13">
-        <f t="shared" si="6"/>
-        <v>7605000</v>
-      </c>
-      <c r="I23" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <f t="shared" si="2"/>
-        <v>2281.5</v>
-      </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13">
-        <f t="shared" si="3"/>
-        <v>-7607281.5</v>
-      </c>
-      <c r="M23" s="16">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="N23" s="13">
-        <f t="shared" si="5"/>
-        <v>-7607281.5</v>
-      </c>
-      <c r="O23" s="13"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="78"/>
-    </row>
-    <row r="24" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="14">
-        <v>45372</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="11">
-        <v>1000</v>
-      </c>
-      <c r="F24" s="71">
-        <v>24200</v>
-      </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13">
-        <f t="shared" si="6"/>
-        <v>24200000</v>
-      </c>
-      <c r="I24" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="13">
-        <f t="shared" si="2"/>
-        <v>7259.9999999999991</v>
-      </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13">
-        <f t="shared" si="3"/>
-        <v>-24207260</v>
-      </c>
-      <c r="M24" s="16">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="N24" s="13">
-        <f t="shared" si="5"/>
-        <v>-24207260</v>
-      </c>
-      <c r="O24" s="13"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="84">
-        <f>AVERAGE(F24:F26)</f>
-        <v>22116.666666666668</v>
-      </c>
-      <c r="R24" s="76">
-        <f>SUM(H24:H26)</f>
-        <v>66350000</v>
-      </c>
-      <c r="S24" s="77">
-        <f>R24/H55</f>
-        <v>0.20171771680474274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="83"/>
-      <c r="B25" s="14">
-        <v>45392</v>
-      </c>
       <c r="C25" s="14"/>
-      <c r="D25" s="66"/>
+      <c r="D25" s="65"/>
       <c r="E25" s="11">
         <v>1000</v>
       </c>
-      <c r="F25" s="71">
-        <v>22150</v>
+      <c r="F25" s="70">
+        <v>25300</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="13">
-        <f t="shared" si="6"/>
-        <v>22150000</v>
+        <f t="shared" ref="H25:H35" si="6">E25*F25</f>
+        <v>25300000</v>
       </c>
       <c r="I25" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="I25:I64" si="7">E25*G25</f>
         <v>0</v>
       </c>
       <c r="J25" s="13">
-        <f t="shared" si="2"/>
-        <v>6644.9999999999991</v>
-      </c>
-      <c r="K25" s="13">
-        <v>116437</v>
-      </c>
-      <c r="L25" s="13">
-        <f t="shared" si="3"/>
-        <v>-22273082</v>
+        <f t="shared" si="3"/>
+        <v>7589.9999999999991</v>
+      </c>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78">
+        <f t="shared" si="4"/>
+        <v>-25307590</v>
       </c>
       <c r="M25" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="N25" s="13">
-        <f t="shared" si="5"/>
-        <v>-22273082</v>
+      <c r="N25" s="78">
+        <f t="shared" si="0"/>
+        <v>-25307590</v>
       </c>
       <c r="O25" s="13"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="76"/>
-      <c r="S25" s="79"/>
+      <c r="Q25" s="114">
+        <f>SUM(H25:H29) + SUM(J25:J29)</f>
+        <v>51618051.5</v>
+      </c>
+      <c r="R25" s="98"/>
+      <c r="S25" s="94"/>
     </row>
     <row r="26" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="82"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="14">
-        <v>45398</v>
+        <v>45397</v>
       </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="66"/>
+      <c r="D26" s="65"/>
       <c r="E26" s="11">
-        <v>1000</v>
-      </c>
-      <c r="F26" s="71">
-        <v>20000</v>
+        <v>400</v>
+      </c>
+      <c r="F26" s="70">
+        <v>26500</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="13">
         <f t="shared" si="6"/>
-        <v>20000000</v>
+        <v>10600000</v>
       </c>
       <c r="I26" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J26" s="13">
-        <f t="shared" si="2"/>
-        <v>5999.9999999999991</v>
-      </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13">
-        <f t="shared" si="3"/>
-        <v>-20006000</v>
+        <f t="shared" si="3"/>
+        <v>3179.9999999999995</v>
+      </c>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78">
+        <f t="shared" si="4"/>
+        <v>-10603180</v>
       </c>
       <c r="M26" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="N26" s="13">
-        <f t="shared" si="5"/>
-        <v>-20006000</v>
+      <c r="N26" s="78">
+        <f t="shared" si="0"/>
+        <v>-10603180</v>
       </c>
       <c r="O26" s="13"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="78"/>
+      <c r="Q26" s="114"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="95"/>
     </row>
     <row r="27" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="81" t="s">
-        <v>39</v>
-      </c>
+      <c r="A27" s="77"/>
       <c r="B27" s="14">
-        <v>45223</v>
+        <v>45398</v>
       </c>
       <c r="C27" s="14"/>
-      <c r="D27" s="66"/>
+      <c r="D27" s="65"/>
       <c r="E27" s="11">
-        <v>200</v>
-      </c>
-      <c r="F27" s="71">
-        <v>28000</v>
+        <v>300</v>
+      </c>
+      <c r="F27" s="70">
+        <v>25350</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="13">
-        <f t="shared" ref="H27:H54" si="8">E27*F27</f>
-        <v>5600000</v>
+        <f t="shared" si="6"/>
+        <v>7605000</v>
       </c>
       <c r="I27" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J27" s="13">
-        <f t="shared" si="2"/>
-        <v>1679.9999999999998</v>
-      </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13">
-        <f t="shared" si="3"/>
-        <v>-5601680</v>
+        <f t="shared" si="3"/>
+        <v>2281.5</v>
+      </c>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78">
+        <f t="shared" si="4"/>
+        <v>-7607281.5</v>
       </c>
       <c r="M27" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="N27" s="13">
-        <f t="shared" si="5"/>
-        <v>-5601680</v>
+      <c r="N27" s="78">
+        <f t="shared" si="0"/>
+        <v>-7607281.5</v>
       </c>
       <c r="O27" s="13"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="87">
-        <f>AVERAGE(F27:F30)</f>
-        <v>28600</v>
-      </c>
-      <c r="R27" s="76">
-        <f>SUM(H27:H30)</f>
-        <v>40010000</v>
-      </c>
-      <c r="S27" s="77">
-        <f>R27/H55</f>
-        <v>0.12163867142965722</v>
-      </c>
+      <c r="P27" s="11">
+        <v>289</v>
+      </c>
+      <c r="Q27" s="114"/>
+      <c r="R27" s="99"/>
+      <c r="S27" s="95"/>
     </row>
     <row r="28" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="83"/>
-      <c r="B28" s="14">
-        <v>45110</v>
-      </c>
+      <c r="A28" s="77"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
+      <c r="D28" s="65"/>
       <c r="E28" s="11">
-        <v>200</v>
-      </c>
-      <c r="F28" s="71">
-        <v>29300</v>
+        <v>289</v>
+      </c>
+      <c r="F28" s="70">
+        <v>0</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="13">
-        <f t="shared" si="8"/>
-        <v>5860000</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I28" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J28" s="13">
-        <f t="shared" si="2"/>
-        <v>1757.9999999999998</v>
-      </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13">
-        <f t="shared" si="3"/>
-        <v>-5861758</v>
-      </c>
-      <c r="M28" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="N28" s="13">
+        <v>0</v>
+      </c>
+      <c r="M28" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>-5861758</v>
+        <v/>
+      </c>
+      <c r="N28" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O28" s="13"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="79"/>
-    </row>
-    <row r="29" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="83"/>
-      <c r="B29" s="14">
-        <v>45089</v>
-      </c>
+      <c r="P28" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q28" s="114"/>
+      <c r="R28" s="99"/>
+      <c r="S28" s="95"/>
+    </row>
+    <row r="29" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="76"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
+      <c r="D29" s="65"/>
       <c r="E29" s="11">
-        <v>500</v>
-      </c>
-      <c r="F29" s="71">
-        <v>28300</v>
+        <v>810</v>
+      </c>
+      <c r="F29" s="70">
+        <v>10000</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="13">
-        <f t="shared" si="8"/>
-        <v>14150000</v>
+        <f t="shared" si="6"/>
+        <v>8100000</v>
       </c>
       <c r="I29" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J29" s="13">
-        <f t="shared" si="2"/>
-        <v>4245</v>
-      </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13">
-        <f t="shared" si="3"/>
-        <v>-14154245</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78">
+        <f t="shared" si="4"/>
+        <v>-8100000</v>
       </c>
       <c r="M29" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="N29" s="13">
-        <f t="shared" si="5"/>
-        <v>-14154245</v>
+      <c r="N29" s="78">
+        <f t="shared" si="0"/>
+        <v>-8100000</v>
       </c>
       <c r="O29" s="13"/>
-      <c r="P29" s="11">
-        <v>100</v>
-      </c>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="76"/>
-      <c r="S29" s="79"/>
+      <c r="P29" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q29" s="114"/>
+      <c r="R29" s="100"/>
+      <c r="S29" s="96"/>
     </row>
     <row r="30" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="82"/>
-      <c r="B30" s="14">
-        <v>45398</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="11">
-        <v>500</v>
-      </c>
-      <c r="F30" s="71">
-        <v>28800</v>
-      </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="13">
-        <f t="shared" si="8"/>
-        <v>14400000</v>
-      </c>
-      <c r="I30" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="13">
-        <f t="shared" si="2"/>
-        <v>4320</v>
-      </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13">
-        <f t="shared" si="3"/>
-        <v>-14404320</v>
-      </c>
-      <c r="M30" s="16">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="N30" s="13">
-        <f t="shared" si="5"/>
-        <v>-14404320</v>
-      </c>
-      <c r="O30" s="13"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="78"/>
+      <c r="A30" s="105"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="106"/>
+      <c r="R30" s="106"/>
+      <c r="S30" s="107"/>
     </row>
     <row r="31" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="14">
+        <v>45372</v>
+      </c>
       <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="71"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F31" s="70">
+        <v>24200</v>
+      </c>
       <c r="G31" s="12"/>
       <c r="H31" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>24200000</v>
       </c>
       <c r="I31" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J31" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>7259.9999999999991</v>
+      </c>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N31" s="13">
+        <v>-24207260</v>
+      </c>
+      <c r="M31" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="N31" s="78">
+        <f t="shared" si="0"/>
+        <v>-24207260</v>
       </c>
       <c r="O31" s="13"/>
       <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
+      <c r="Q31" s="111">
+        <f>SUM(H31:H35) + SUM(J31:J35)</f>
+        <v>72369905</v>
+      </c>
+      <c r="R31" s="103"/>
+      <c r="S31" s="94"/>
     </row>
     <row r="32" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="14">
+        <v>45392</v>
+      </c>
       <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="71"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="70">
+        <v>22150</v>
+      </c>
       <c r="G32" s="12"/>
       <c r="H32" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>22150000</v>
       </c>
       <c r="I32" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J32" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>6644.9999999999991</v>
+      </c>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N32" s="13">
+        <v>-22156645</v>
+      </c>
+      <c r="M32" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="N32" s="78">
+        <f t="shared" si="0"/>
+        <v>-22156645</v>
       </c>
       <c r="O32" s="13"/>
       <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
+      <c r="Q32" s="113"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="95"/>
     </row>
     <row r="33" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="14">
+        <v>45398</v>
+      </c>
       <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="71"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="70">
+        <v>20000</v>
+      </c>
       <c r="G33" s="12"/>
       <c r="H33" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>20000000</v>
       </c>
       <c r="I33" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J33" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>5999.9999999999991</v>
+      </c>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N33" s="13">
+        <v>-20006000</v>
+      </c>
+      <c r="M33" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="N33" s="78">
+        <f t="shared" si="0"/>
+        <v>-20006000</v>
       </c>
       <c r="O33" s="13"/>
       <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
+      <c r="Q33" s="113"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="95"/>
     </row>
     <row r="34" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="42"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="71"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="11">
+        <v>150</v>
+      </c>
+      <c r="F34" s="70"/>
       <c r="G34" s="12"/>
       <c r="H34" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I34" s="13">
@@ -2496,269 +2621,284 @@
         <v>0</v>
       </c>
       <c r="J34" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N34" s="13">
-        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="16"/>
+      <c r="N34" s="78">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O34" s="13"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
+      <c r="P34" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q34" s="113"/>
+      <c r="R34" s="103"/>
+      <c r="S34" s="95"/>
     </row>
     <row r="35" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="42"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="71"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="11">
+        <v>600</v>
+      </c>
+      <c r="F35" s="70">
+        <v>10000</v>
+      </c>
       <c r="G35" s="12"/>
       <c r="H35" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>6000000</v>
       </c>
       <c r="I35" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J35" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N35" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-6000000</v>
+      </c>
+      <c r="M35" s="16"/>
+      <c r="N35" s="78">
+        <f t="shared" si="0"/>
+        <v>-6000000</v>
       </c>
       <c r="O35" s="13"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
+      <c r="P35" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q35" s="112"/>
+      <c r="R35" s="103"/>
+      <c r="S35" s="96"/>
     </row>
     <row r="36" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="42"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N36" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="13"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="106"/>
+      <c r="N36" s="106"/>
+      <c r="O36" s="106"/>
+      <c r="P36" s="106"/>
+      <c r="Q36" s="106"/>
+      <c r="R36" s="106"/>
+      <c r="S36" s="107"/>
     </row>
     <row r="37" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="42"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="14">
+        <v>45223</v>
+      </c>
       <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="71"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="11">
+        <v>200</v>
+      </c>
+      <c r="F37" s="70">
+        <v>28000</v>
+      </c>
       <c r="G37" s="12"/>
       <c r="H37" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="H37:H64" si="8">E37*F37</f>
+        <v>5600000</v>
       </c>
       <c r="I37" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J37" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>1679.9999999999998</v>
+      </c>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N37" s="13">
+        <v>-5601680</v>
+      </c>
+      <c r="M37" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="N37" s="78">
+        <f t="shared" si="0"/>
+        <v>-5601680</v>
       </c>
       <c r="O37" s="13"/>
       <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
+      <c r="Q37" s="115">
+        <f>SUM(H37:H41) + SUM(J37:J41)</f>
+        <v>40022003</v>
+      </c>
+      <c r="R37" s="103"/>
+      <c r="S37" s="94"/>
     </row>
     <row r="38" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="42"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="14">
+        <v>45110</v>
+      </c>
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="71"/>
+      <c r="E38" s="11">
+        <v>200</v>
+      </c>
+      <c r="F38" s="70">
+        <v>29300</v>
+      </c>
       <c r="G38" s="12"/>
       <c r="H38" s="13">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5860000</v>
       </c>
       <c r="I38" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J38" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>1757.9999999999998</v>
+      </c>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N38" s="13">
+        <v>-5861758</v>
+      </c>
+      <c r="M38" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="N38" s="78">
+        <f t="shared" si="0"/>
+        <v>-5861758</v>
       </c>
       <c r="O38" s="13"/>
       <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
+      <c r="Q38" s="116"/>
+      <c r="R38" s="103"/>
+      <c r="S38" s="95"/>
     </row>
     <row r="39" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="42"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="14">
+        <v>45089</v>
+      </c>
       <c r="C39" s="14"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="71"/>
+      <c r="E39" s="11">
+        <v>500</v>
+      </c>
+      <c r="F39" s="70">
+        <v>28300</v>
+      </c>
       <c r="G39" s="12"/>
       <c r="H39" s="13">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14150000</v>
       </c>
       <c r="I39" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J39" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>4245</v>
+      </c>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N39" s="13">
+        <v>-14154245</v>
+      </c>
+      <c r="M39" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="N39" s="78">
+        <f t="shared" si="0"/>
+        <v>-14154245</v>
       </c>
       <c r="O39" s="13"/>
       <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
+      <c r="Q39" s="116"/>
+      <c r="R39" s="103"/>
+      <c r="S39" s="95"/>
     </row>
     <row r="40" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="42"/>
-      <c r="B40" s="14"/>
+      <c r="A40" s="77"/>
+      <c r="B40" s="14">
+        <v>45398</v>
+      </c>
       <c r="C40" s="14"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="71"/>
+      <c r="E40" s="11">
+        <v>500</v>
+      </c>
+      <c r="F40" s="70">
+        <v>28800</v>
+      </c>
       <c r="G40" s="12"/>
       <c r="H40" s="13">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14400000</v>
       </c>
       <c r="I40" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J40" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>4320</v>
+      </c>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N40" s="13">
+        <v>-14404320</v>
+      </c>
+      <c r="M40" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="N40" s="78">
+        <f t="shared" si="0"/>
+        <v>-14404320</v>
       </c>
       <c r="O40" s="13"/>
       <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
+      <c r="Q40" s="116"/>
+      <c r="R40" s="103"/>
+      <c r="S40" s="95"/>
     </row>
     <row r="41" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="42"/>
+      <c r="A41" s="76"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="71"/>
+      <c r="E41" s="11">
+        <v>105</v>
+      </c>
+      <c r="F41" s="70">
+        <v>0</v>
+      </c>
       <c r="G41" s="12"/>
       <c r="H41" s="13">
         <f t="shared" si="8"/>
@@ -2769,74 +2909,58 @@
         <v>0</v>
       </c>
       <c r="J41" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="78"/>
+      <c r="L41" s="78">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M41" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N41" s="13">
-        <f t="shared" si="5"/>
+        <f>IFERROR((G41-F41)/F41,"")</f>
+        <v/>
+      </c>
+      <c r="N41" s="78">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O41" s="13"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
+      <c r="P41" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q41" s="117"/>
+      <c r="R41" s="103"/>
+      <c r="S41" s="96"/>
     </row>
     <row r="42" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="42"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N42" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="13"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="42"/>
+      <c r="A42" s="105"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="106"/>
+      <c r="K42" s="106"/>
+      <c r="L42" s="106"/>
+      <c r="M42" s="106"/>
+      <c r="N42" s="106"/>
+      <c r="O42" s="106"/>
+      <c r="P42" s="106"/>
+      <c r="Q42" s="106"/>
+      <c r="R42" s="106"/>
+      <c r="S42" s="107"/>
+    </row>
+    <row r="43" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="41"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="15"/>
       <c r="E43" s="11"/>
-      <c r="F43" s="71"/>
+      <c r="F43" s="70"/>
       <c r="G43" s="12"/>
       <c r="H43" s="13">
         <f t="shared" si="8"/>
@@ -2847,35 +2971,35 @@
         <v>0</v>
       </c>
       <c r="J43" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="78"/>
+      <c r="L43" s="78">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M43" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N43" s="13">
         <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N43" s="78">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O43" s="13"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
+      <c r="R43" s="104"/>
       <c r="S43" s="11"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="42"/>
+    <row r="44" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="41"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="15"/>
       <c r="E44" s="11"/>
-      <c r="F44" s="71"/>
+      <c r="F44" s="70"/>
       <c r="G44" s="12"/>
       <c r="H44" s="13">
         <f t="shared" si="8"/>
@@ -2886,35 +3010,35 @@
         <v>0</v>
       </c>
       <c r="J44" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="78"/>
+      <c r="L44" s="78">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M44" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N44" s="13">
         <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N44" s="78">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O44" s="13"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
+      <c r="R44" s="104"/>
       <c r="S44" s="11"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="42"/>
+    <row r="45" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="41"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="15"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="71"/>
+      <c r="F45" s="70"/>
       <c r="G45" s="12"/>
       <c r="H45" s="13">
         <f t="shared" si="8"/>
@@ -2925,35 +3049,35 @@
         <v>0</v>
       </c>
       <c r="J45" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="78"/>
+      <c r="L45" s="78">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M45" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N45" s="13">
         <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N45" s="78">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O45" s="13"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
+      <c r="R45" s="104"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="42"/>
+    <row r="46" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="41"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
       <c r="D46" s="15"/>
       <c r="E46" s="11"/>
-      <c r="F46" s="71"/>
+      <c r="F46" s="70"/>
       <c r="G46" s="12"/>
       <c r="H46" s="13">
         <f t="shared" si="8"/>
@@ -2964,35 +3088,35 @@
         <v>0</v>
       </c>
       <c r="J46" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="78"/>
+      <c r="L46" s="78">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M46" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N46" s="13">
         <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N46" s="78">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O46" s="13"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
+      <c r="R46" s="104"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="42"/>
+    <row r="47" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="41"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
       <c r="D47" s="15"/>
       <c r="E47" s="11"/>
-      <c r="F47" s="71"/>
+      <c r="F47" s="70"/>
       <c r="G47" s="12"/>
       <c r="H47" s="13">
         <f t="shared" si="8"/>
@@ -3003,35 +3127,35 @@
         <v>0</v>
       </c>
       <c r="J47" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="78"/>
+      <c r="L47" s="78">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M47" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N47" s="13">
         <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N47" s="78">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O47" s="13"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
+      <c r="R47" s="104"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="42"/>
+    <row r="48" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="41"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="15"/>
       <c r="E48" s="11"/>
-      <c r="F48" s="71"/>
+      <c r="F48" s="70"/>
       <c r="G48" s="12"/>
       <c r="H48" s="13">
         <f t="shared" si="8"/>
@@ -3042,35 +3166,35 @@
         <v>0</v>
       </c>
       <c r="J48" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="78"/>
+      <c r="L48" s="78">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M48" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N48" s="13">
         <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N48" s="78">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O48" s="13"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
+      <c r="R48" s="104"/>
       <c r="S48" s="11"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49" s="42"/>
+    <row r="49" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="41"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="15"/>
       <c r="E49" s="11"/>
-      <c r="F49" s="71"/>
+      <c r="F49" s="70"/>
       <c r="G49" s="12"/>
       <c r="H49" s="13">
         <f t="shared" si="8"/>
@@ -3081,35 +3205,35 @@
         <v>0</v>
       </c>
       <c r="J49" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="78"/>
+      <c r="L49" s="78">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M49" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N49" s="13">
         <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N49" s="78">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O49" s="13"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
+      <c r="R49" s="104"/>
       <c r="S49" s="11"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="42"/>
+    <row r="50" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="41"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="15"/>
       <c r="E50" s="11"/>
-      <c r="F50" s="71"/>
+      <c r="F50" s="70"/>
       <c r="G50" s="12"/>
       <c r="H50" s="13">
         <f t="shared" si="8"/>
@@ -3120,35 +3244,35 @@
         <v>0</v>
       </c>
       <c r="J50" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="78"/>
+      <c r="L50" s="78">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M50" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N50" s="13">
         <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N50" s="78">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O50" s="13"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
+      <c r="R50" s="104"/>
       <c r="S50" s="11"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="42"/>
+    <row r="51" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="41"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="15"/>
       <c r="E51" s="11"/>
-      <c r="F51" s="71"/>
+      <c r="F51" s="70"/>
       <c r="G51" s="12"/>
       <c r="H51" s="13">
         <f t="shared" si="8"/>
@@ -3159,35 +3283,35 @@
         <v>0</v>
       </c>
       <c r="J51" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="78"/>
+      <c r="L51" s="78">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M51" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N51" s="13">
         <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N51" s="78">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O51" s="13"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
+      <c r="R51" s="104"/>
       <c r="S51" s="11"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="42"/>
+    <row r="52" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="41"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="15"/>
       <c r="E52" s="11"/>
-      <c r="F52" s="71"/>
+      <c r="F52" s="70"/>
       <c r="G52" s="12"/>
       <c r="H52" s="13">
         <f t="shared" si="8"/>
@@ -3198,35 +3322,35 @@
         <v>0</v>
       </c>
       <c r="J52" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="78"/>
+      <c r="L52" s="78">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M52" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N52" s="13">
         <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N52" s="78">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O52" s="13"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
+      <c r="R52" s="104"/>
       <c r="S52" s="11"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="42"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="15"/>
       <c r="E53" s="11"/>
-      <c r="F53" s="71"/>
+      <c r="F53" s="70"/>
       <c r="G53" s="12"/>
       <c r="H53" s="13">
         <f t="shared" si="8"/>
@@ -3237,35 +3361,35 @@
         <v>0</v>
       </c>
       <c r="J53" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="78"/>
+      <c r="L53" s="78">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M53" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N53" s="13">
         <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N53" s="78">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O53" s="13"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
+      <c r="R53" s="104"/>
       <c r="S53" s="11"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="42"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="15"/>
       <c r="E54" s="11"/>
-      <c r="F54" s="71"/>
+      <c r="F54" s="70"/>
       <c r="G54" s="12"/>
       <c r="H54" s="13">
         <f t="shared" si="8"/>
@@ -3276,83 +3400,483 @@
         <v>0</v>
       </c>
       <c r="J54" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="78"/>
+      <c r="L54" s="78">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M54" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N54" s="13">
         <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N54" s="78">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O54" s="13"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
+      <c r="R54" s="104"/>
       <c r="S54" s="11"/>
     </row>
-    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A55" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="39">
-        <f>SUM(H10:H54)</f>
-        <v>328925000</v>
-      </c>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="41">
-        <f>SUM(N10:N54)</f>
-        <v>-324390114.5</v>
-      </c>
-      <c r="O55" s="75"/>
-      <c r="P55" s="75"/>
-      <c r="Q55" s="75"/>
-      <c r="R55" s="75"/>
-      <c r="S55" s="75"/>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="41"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="78"/>
+      <c r="L55" s="78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N55" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="13"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="104"/>
+      <c r="S55" s="11"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" s="41"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="78"/>
+      <c r="L56" s="78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N56" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="13"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="104"/>
+      <c r="S56" s="11"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="41"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="78"/>
+      <c r="L57" s="78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N57" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="13"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="104"/>
+      <c r="S57" s="11"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" s="41"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="78"/>
+      <c r="L58" s="78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N58" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="13"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="104"/>
+      <c r="S58" s="11"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" s="41"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="78"/>
+      <c r="L59" s="78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N59" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="13"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="104"/>
+      <c r="S59" s="11"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60" s="41"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="78"/>
+      <c r="L60" s="78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N60" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="13"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="104"/>
+      <c r="S60" s="11"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61" s="41"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="78"/>
+      <c r="L61" s="78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N61" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="13"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="104"/>
+      <c r="S61" s="11"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62" s="41"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="78"/>
+      <c r="L62" s="78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N62" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="13"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="104"/>
+      <c r="S62" s="11"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63" s="41"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="78"/>
+      <c r="L63" s="78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N63" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="13"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="104"/>
+      <c r="S63" s="11"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" s="41"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="78"/>
+      <c r="L64" s="78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N64" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="13"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="104"/>
+      <c r="S64" s="11"/>
+    </row>
+    <row r="65" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A65" s="118" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" s="119"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="119"/>
+      <c r="E65" s="118"/>
+      <c r="F65" s="120"/>
+      <c r="G65" s="120"/>
+      <c r="H65" s="121">
+        <f>SUM(H10:H64) - SUM(S10:S63)</f>
+        <v>314852957</v>
+      </c>
+      <c r="I65" s="121"/>
+      <c r="J65" s="121">
+        <f>SUM(J10:J64)</f>
+        <v>167837.5</v>
+      </c>
+      <c r="K65" s="121"/>
+      <c r="L65" s="121"/>
+      <c r="M65" s="122"/>
+      <c r="N65" s="123"/>
+      <c r="O65" s="74"/>
+      <c r="P65" s="74"/>
+      <c r="Q65" s="74">
+        <f>SUM(Q10:Q64) - SUM(S10:S64)</f>
+        <v>315020794.5</v>
+      </c>
+      <c r="R65" s="74"/>
+      <c r="S65" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="Q12:Q16"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="Q27:Q30"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="Q24:Q26"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R27:R30"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="S12:S16"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="S24:S26"/>
-    <mergeCell ref="S27:S30"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R16"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="R24:R26"/>
+  <mergeCells count="31">
+    <mergeCell ref="S20:S23"/>
+    <mergeCell ref="A19:S19"/>
+    <mergeCell ref="A42:S42"/>
+    <mergeCell ref="A36:S36"/>
+    <mergeCell ref="A30:S30"/>
+    <mergeCell ref="A24:S24"/>
+    <mergeCell ref="S25:S29"/>
+    <mergeCell ref="S37:S41"/>
+    <mergeCell ref="S31:S35"/>
+    <mergeCell ref="Q25:Q29"/>
+    <mergeCell ref="Q31:Q35"/>
+    <mergeCell ref="Q37:Q41"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="R31:R35"/>
+    <mergeCell ref="R37:R41"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="R14:R18"/>
+    <mergeCell ref="R25:R29"/>
+    <mergeCell ref="A13:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S10:S12"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q20:Q23"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3380,22 +3904,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="7">
         <v>300000000</v>
@@ -3403,34 +3927,34 @@
     </row>
     <row r="5" spans="1:9" s="26" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="28" t="s">
+      <c r="F5" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="28" t="s">
+      <c r="H5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="29" t="s">
         <v>14</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="23">
         <f>4+12+1</f>
